--- a/Examples/Data/Articles/SettingSharedFormula/.out.xlsx
+++ b/Examples/Data/Articles/SettingSharedFormula/.out.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Evaluation Warning" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Evaluation Warning" sheetId="4" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
@@ -23,16 +23,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2014 Aspose Pty Ltd.</t>
+    <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2016 Aspose Pty Ltd.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -58,7 +64,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9.15"/>
+      <sz val="9.2"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -94,26 +100,26 @@
       <alignment vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment/>
       <protection/>
     </xf>
@@ -122,15 +128,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="20" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="20" applyFont="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="20">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="20">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
     </xf>
@@ -223,6 +229,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
@@ -238,12 +245,13 @@
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
         </a:solidFill>
-        <a:ln w="3175">
+        <a:ln w="3175" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:floor>
     <c:sideWall>
@@ -251,12 +259,13 @@
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
         </a:solidFill>
-        <a:ln w="3175">
+        <a:ln w="3175" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:sideWall>
     <c:backWall>
@@ -264,12 +273,13 @@
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
         </a:solidFill>
-        <a:ln w="3175">
+        <a:ln w="3175" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:backWall>
     <c:plotArea>
@@ -295,18 +305,20 @@
             <a:solidFill>
               <a:srgbClr val="9999FF"/>
             </a:solidFill>
-            <a:ln w="12700">
+            <a:ln w="12700" cap="flat" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$A$1:$A$3</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
@@ -329,18 +341,20 @@
             <a:solidFill>
               <a:srgbClr val="993366"/>
             </a:solidFill>
-            <a:ln w="12700">
+            <a:ln w="12700" cap="flat" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$1:$B$3</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
               </c:numCache>
             </c:numRef>
@@ -348,78 +362,113 @@
           <c:shape val="pyramid"/>
         </c:ser>
         <c:shape val="pyramid"/>
-        <c:axId val="17654054"/>
-        <c:axId val="52727599"/>
+        <c:axId val="44395721"/>
+        <c:axId val="32028959"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="17654054"/>
+        <c:axId val="44395721"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:delete val="0"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="3175">
+          <a:ln w="3175" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="52727599"/>
+        <c:txPr>
+          <a:bodyPr vert="horz" rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="32028959"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52727599"/>
+        <c:axId val="32028959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="3175">
+            <a:ln w="3175" cap="flat" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:delete val="0"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="3175">
+          <a:ln w="3175" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="17654054"/>
+        <c:txPr>
+          <a:bodyPr vert="horz" rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44395721"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:dispUnits/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
         </a:solidFill>
-        <a:ln w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="808080"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
@@ -439,19 +488,20 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="3175">
+        <a:ln w="3175" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr vert="horz" rot="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="915" b="0" i="0" u="none" baseline="0">
+            <a:defRPr lang="en-US" sz="920" b="0" i="0" u="none" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -465,17 +515,19 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
-    <a:ln w="3175">
+    <a:ln w="3175" cap="flat" cmpd="sng">
       <a:solidFill>
         <a:srgbClr val="000000"/>
       </a:solidFill>
       <a:prstDash val="solid"/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
   <c:txPr>
     <a:bodyPr vert="horz" rot="0"/>
@@ -498,6 +550,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
@@ -520,12 +573,13 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="12700">
+            <a:ln w="12700" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -554,6 +608,7 @@
             <c:numRef>
               <c:f>'[1]Sheet2'!$A$1:$A$4</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
@@ -576,12 +631,13 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="12700">
+            <a:ln w="12700" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -610,6 +666,7 @@
             <c:numRef>
               <c:f>'[1]Sheet2'!$B$1:$B$4</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
@@ -629,78 +686,113 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="14347911"/>
-        <c:axId val="51393439"/>
+        <c:axId val="44220814"/>
+        <c:axId val="25557385"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="14347911"/>
+        <c:axId val="44220814"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:delete val="0"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="3175">
+          <a:ln w="3175" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="51393439"/>
+        <c:txPr>
+          <a:bodyPr vert="horz" rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="25557385"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51393439"/>
+        <c:axId val="25557385"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="3175">
+            <a:ln w="3175" cap="flat" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:delete val="0"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="3175">
+          <a:ln w="3175" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="14347911"/>
+        <c:txPr>
+          <a:bodyPr vert="horz" rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44220814"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:dispUnits/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
         </a:solidFill>
-        <a:ln w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="808080"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
@@ -720,19 +812,20 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="3175">
+        <a:ln w="3175" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr vert="horz" rot="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="915" b="0" i="0" u="none" baseline="0">
+            <a:defRPr lang="en-US" sz="920" b="0" i="0" u="none" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -746,17 +839,19 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
-    <a:ln w="3175">
+    <a:ln w="3175" cap="flat" cmpd="sng">
       <a:solidFill>
         <a:srgbClr val="000000"/>
       </a:solidFill>
       <a:prstDash val="solid"/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
   <c:txPr>
     <a:bodyPr vert="horz" rot="0"/>
@@ -778,7 +873,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -813,7 +908,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -848,7 +943,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1243,14 +1338,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" ht="12.75">
       <c r="A1">
@@ -1340,19 +1435,20 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
+  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F4:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.14285714285714" style="2"/>
   </cols>
@@ -1368,14 +1464,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.14285714285714" style="2"/>
   </cols>
@@ -1387,12 +1483,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" ht="23.25" customHeight="1">
       <c r="A5" s="3" t="s">
